--- a/TestData/LinkedIn.xlsx
+++ b/TestData/LinkedIn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>UserName</t>
   </si>
@@ -34,10 +34,28 @@
     <t>Chennai</t>
   </si>
   <si>
-    <t>srikarthik.srinivasan@gmail.com</t>
-  </si>
-  <si>
-    <t>Srikarthik99@</t>
+    <t>Service Delivery</t>
+  </si>
+  <si>
+    <t>Wealth Management</t>
+  </si>
+  <si>
+    <t>Delivery Management</t>
+  </si>
+  <si>
+    <t>sudhasthrmn2@gmail.com</t>
+  </si>
+  <si>
+    <t>August2021@</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -411,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,9 +441,12 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -438,19 +459,37 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
